--- a/conf-core/src/test/resources/dataloader/units-required-fields-filure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/units-required-fields-filure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -106,21 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,9 +140,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +151,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -204,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,11 +446,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -485,20 +481,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -576,14 +571,6 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
